--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC12_Verify_AddToCart_from_PDP.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC12_Verify_AddToCart_from_PDP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6835C3-2AAC-432D-8965-80DB3386F66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031717F2-9025-4947-9F65-2595AAFEB25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>TestCase</t>
   </si>
@@ -160,9 +160,6 @@
     <t>GearingCategoryHeader</t>
   </si>
   <si>
-    <t>CategorypageTitle</t>
-  </si>
-  <si>
     <t>ProductList</t>
   </si>
   <si>
@@ -196,13 +193,13 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>SCROLL_DOWN</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -618,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -652,7 +649,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -671,81 +668,73 @@
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
@@ -753,54 +742,58 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
@@ -809,29 +802,38 @@
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1025,7 +1027,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1033,7 +1035,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1041,7 +1043,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1049,7 +1051,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1057,7 +1059,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
